--- a/Sorteio Times Futebol/Versão 8.0/Preparação Sorteio/bancodedados.xlsx
+++ b/Sorteio Times Futebol/Versão 8.0/Preparação Sorteio/bancodedados.xlsx
@@ -3,10 +3,10 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Planilha1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="peladeiros" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Planilha1!$A$1:$G$117</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">peladeiros!$A$1:$G$117</definedName>
   </definedNames>
   <calcPr/>
   <extLst>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="135">
   <si>
     <t>id</t>
   </si>
@@ -80,6 +80,15 @@
     <t>Diego Rocha</t>
   </si>
   <si>
+    <t>Eduardo</t>
+  </si>
+  <si>
+    <t>diarista</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
     <t>Flávio Ribeiro</t>
   </si>
   <si>
@@ -95,6 +104,12 @@
     <t>Manga</t>
   </si>
   <si>
+    <t>Marcelinho</t>
+  </si>
+  <si>
+    <t>Niclaudio</t>
+  </si>
+  <si>
     <t>Paulo Thiago</t>
   </si>
   <si>
@@ -107,12 +122,69 @@
     <t>Thiago Alemão</t>
   </si>
   <si>
+    <t>Victor Assis</t>
+  </si>
+  <si>
     <t>Victor Chaves</t>
   </si>
   <si>
+    <t>Vinicius</t>
+  </si>
+  <si>
+    <t>Vitor S.</t>
+  </si>
+  <si>
+    <t>Balbino</t>
+  </si>
+  <si>
+    <t>Cadu</t>
+  </si>
+  <si>
+    <t>Chistopher</t>
+  </si>
+  <si>
+    <t>Claudino</t>
+  </si>
+  <si>
+    <t>Dudu</t>
+  </si>
+  <si>
+    <t>Duduzinho</t>
+  </si>
+  <si>
+    <t>Elvis</t>
+  </si>
+  <si>
+    <t>Felipe Melo</t>
+  </si>
+  <si>
+    <t>Gabriel</t>
+  </si>
+  <si>
+    <t>Grimauro</t>
+  </si>
+  <si>
+    <t>Henrique Silva</t>
+  </si>
+  <si>
+    <t>Henrique Souza</t>
+  </si>
+  <si>
     <t>Ícaro Feitosa</t>
   </si>
   <si>
+    <t>Italo</t>
+  </si>
+  <si>
+    <t>Jackson</t>
+  </si>
+  <si>
+    <t>Jefferson</t>
+  </si>
+  <si>
+    <t>Jorge</t>
+  </si>
+  <si>
     <t>Juninho</t>
   </si>
   <si>
@@ -122,295 +194,235 @@
     <t>Léo A.</t>
   </si>
   <si>
+    <t>Lucas P.</t>
+  </si>
+  <si>
     <t>Marcos S.</t>
   </si>
   <si>
+    <t>Matheus</t>
+  </si>
+  <si>
     <t>Nagibio</t>
   </si>
   <si>
+    <t>Nestor</t>
+  </si>
+  <si>
+    <t>Neto</t>
+  </si>
+  <si>
+    <t>Pablo</t>
+  </si>
+  <si>
+    <t>Pedro PiuPiu</t>
+  </si>
+  <si>
+    <t>Pou</t>
+  </si>
+  <si>
     <t>Rafa Ribeiro</t>
   </si>
   <si>
+    <t>Renan</t>
+  </si>
+  <si>
+    <t>Ronaldinho</t>
+  </si>
+  <si>
     <t>Sérgio Falcão</t>
   </si>
   <si>
+    <t>Teffinho</t>
+  </si>
+  <si>
+    <t>Teteca</t>
+  </si>
+  <si>
     <t>Túlio</t>
   </si>
   <si>
+    <t>Vinicinho</t>
+  </si>
+  <si>
+    <t>Xandinho</t>
+  </si>
+  <si>
     <t>Thayan</t>
   </si>
   <si>
+    <t>Flavio Ureia</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>Carlinhos</t>
+  </si>
+  <si>
+    <t>Guilherme</t>
+  </si>
+  <si>
+    <t>Arthur</t>
+  </si>
+  <si>
+    <t>Julius Rocha</t>
+  </si>
+  <si>
+    <t>Serginho V.</t>
+  </si>
+  <si>
+    <t>Liwerton</t>
+  </si>
+  <si>
+    <t>Lauber</t>
+  </si>
+  <si>
+    <t>Vitinho</t>
+  </si>
+  <si>
     <t>João Vitor</t>
   </si>
   <si>
+    <t>Cauã</t>
+  </si>
+  <si>
+    <t>Vinicius A.</t>
+  </si>
+  <si>
+    <t>Stive</t>
+  </si>
+  <si>
+    <t>Gui Lima</t>
+  </si>
+  <si>
+    <t>Elder</t>
+  </si>
+  <si>
+    <t>Paulo Silva</t>
+  </si>
+  <si>
+    <t>Filep</t>
+  </si>
+  <si>
+    <t>Filipinho</t>
+  </si>
+  <si>
+    <t>Thiago Sultanum</t>
+  </si>
+  <si>
+    <t>Luís</t>
+  </si>
+  <si>
+    <t>Bruno Correia</t>
+  </si>
+  <si>
+    <t>Caio Victor</t>
+  </si>
+  <si>
+    <t>Pedro Henrique</t>
+  </si>
+  <si>
+    <t>Maradona</t>
+  </si>
+  <si>
+    <t>Eduardo Duka</t>
+  </si>
+  <si>
+    <t>Isaias</t>
+  </si>
+  <si>
+    <t>Thawan</t>
+  </si>
+  <si>
+    <t>Felipe Pita</t>
+  </si>
+  <si>
+    <t>Beu</t>
+  </si>
+  <si>
+    <t>Jean</t>
+  </si>
+  <si>
+    <t>Guigo</t>
+  </si>
+  <si>
+    <t>Matheus BBB</t>
+  </si>
+  <si>
+    <t>Luketa</t>
+  </si>
+  <si>
+    <t>Eleanderson</t>
+  </si>
+  <si>
+    <t>Joelmir</t>
+  </si>
+  <si>
+    <t>Pedro Barbeiro</t>
+  </si>
+  <si>
+    <t>Biro</t>
+  </si>
+  <si>
+    <t>Prego</t>
+  </si>
+  <si>
+    <t>Huguinho</t>
+  </si>
+  <si>
+    <t>Rodrigo</t>
+  </si>
+  <si>
+    <t>Marcio</t>
+  </si>
+  <si>
+    <t>Tiago Cesar</t>
+  </si>
+  <si>
+    <t>Mauricio</t>
+  </si>
+  <si>
+    <t>Hiago</t>
+  </si>
+  <si>
+    <t>Goncalves</t>
+  </si>
+  <si>
+    <t>Juliano</t>
+  </si>
+  <si>
+    <t>Luiz</t>
+  </si>
+  <si>
+    <t>Kabynho</t>
+  </si>
+  <si>
+    <t>Geverson</t>
+  </si>
+  <si>
+    <t>Allan Kennedy</t>
+  </si>
+  <si>
     <t>Japa</t>
   </si>
   <si>
-    <t>Xandinho</t>
-  </si>
-  <si>
-    <t>Eduardo</t>
-  </si>
-  <si>
-    <t>diarista</t>
-  </si>
-  <si>
-    <t>Grimauro</t>
-  </si>
-  <si>
-    <t>Claudino</t>
-  </si>
-  <si>
-    <t>Jackson</t>
-  </si>
-  <si>
-    <t>Eric</t>
-  </si>
-  <si>
-    <t>Marcelinho</t>
-  </si>
-  <si>
-    <t>Niclaudio</t>
-  </si>
-  <si>
-    <t>Victor Assis</t>
-  </si>
-  <si>
-    <t>Vinicius</t>
-  </si>
-  <si>
-    <t>Vitor S.</t>
-  </si>
-  <si>
-    <t>Balbino</t>
-  </si>
-  <si>
-    <t>Cadu</t>
-  </si>
-  <si>
-    <t>Chistopher</t>
-  </si>
-  <si>
-    <t>Dudu</t>
-  </si>
-  <si>
-    <t>Duduzinho</t>
-  </si>
-  <si>
-    <t>Elvis</t>
-  </si>
-  <si>
-    <t>Felipe Melo</t>
-  </si>
-  <si>
-    <t>Gabriel</t>
-  </si>
-  <si>
-    <t>Henrique Silva</t>
-  </si>
-  <si>
-    <t>Henrique Souza</t>
-  </si>
-  <si>
-    <t>Italo</t>
-  </si>
-  <si>
-    <t>Jefferson</t>
-  </si>
-  <si>
-    <t>Jorge</t>
-  </si>
-  <si>
-    <t>Lucas P.</t>
-  </si>
-  <si>
-    <t>Matheus</t>
-  </si>
-  <si>
-    <t>Nestor</t>
-  </si>
-  <si>
-    <t>Neto</t>
-  </si>
-  <si>
-    <t>Pablo</t>
-  </si>
-  <si>
-    <t>Pedro PiuPiu</t>
-  </si>
-  <si>
-    <t>Pou</t>
-  </si>
-  <si>
-    <t>Renan</t>
-  </si>
-  <si>
-    <t>Ronaldinho</t>
-  </si>
-  <si>
-    <t>Teffinho</t>
-  </si>
-  <si>
-    <t>Teteca</t>
-  </si>
-  <si>
-    <t>Vinicinho</t>
-  </si>
-  <si>
-    <t>Flavio Ureia</t>
-  </si>
-  <si>
-    <t>Lucas</t>
-  </si>
-  <si>
-    <t>Carlinhos</t>
-  </si>
-  <si>
-    <t>Guilherme</t>
-  </si>
-  <si>
-    <t>Arthur</t>
-  </si>
-  <si>
-    <t>Julius Rocha</t>
-  </si>
-  <si>
-    <t>Serginho V.</t>
-  </si>
-  <si>
-    <t>Liwerton</t>
-  </si>
-  <si>
-    <t>Lauber</t>
-  </si>
-  <si>
-    <t>Vitinho</t>
-  </si>
-  <si>
-    <t>Cauã</t>
-  </si>
-  <si>
-    <t>Vinicius A.</t>
-  </si>
-  <si>
-    <t>Stive</t>
-  </si>
-  <si>
-    <t>Gui Lima</t>
-  </si>
-  <si>
-    <t>Elder</t>
-  </si>
-  <si>
-    <t>Paulo Silva</t>
-  </si>
-  <si>
-    <t>Filep</t>
-  </si>
-  <si>
-    <t>Filipinho</t>
-  </si>
-  <si>
-    <t>Thiago Sultanum</t>
-  </si>
-  <si>
-    <t>Luís</t>
-  </si>
-  <si>
-    <t>Bruno Correia</t>
-  </si>
-  <si>
-    <t>Caio Victor</t>
-  </si>
-  <si>
-    <t>Pedro Henrique</t>
-  </si>
-  <si>
-    <t>Maradona</t>
-  </si>
-  <si>
-    <t>Eduardo Duka</t>
-  </si>
-  <si>
-    <t>Isaias</t>
-  </si>
-  <si>
-    <t>Thawan</t>
-  </si>
-  <si>
-    <t>Felipe Pita</t>
-  </si>
-  <si>
-    <t>Beu</t>
-  </si>
-  <si>
-    <t>Jean</t>
-  </si>
-  <si>
-    <t>Guigo</t>
-  </si>
-  <si>
-    <t>Matheus BBB</t>
-  </si>
-  <si>
-    <t>Luketa</t>
-  </si>
-  <si>
-    <t>Eleanderson</t>
-  </si>
-  <si>
-    <t>Joelmir</t>
-  </si>
-  <si>
-    <t>Pedro Barbeiro</t>
-  </si>
-  <si>
-    <t>Biro</t>
-  </si>
-  <si>
-    <t>Prego</t>
-  </si>
-  <si>
-    <t>Huguinho</t>
-  </si>
-  <si>
-    <t>Rodrigo</t>
-  </si>
-  <si>
-    <t>Marcio</t>
-  </si>
-  <si>
-    <t>Tiago Cesar</t>
-  </si>
-  <si>
-    <t>Mauricio</t>
-  </si>
-  <si>
-    <t>Hiago</t>
-  </si>
-  <si>
-    <t>Goncalves</t>
-  </si>
-  <si>
-    <t>Juliano</t>
-  </si>
-  <si>
-    <t>Luiz</t>
-  </si>
-  <si>
-    <t>Kabynho</t>
-  </si>
-  <si>
-    <t>Geverson</t>
-  </si>
-  <si>
-    <t>Allan Kennedy</t>
-  </si>
-  <si>
     <t>Gabriel Medeiros</t>
   </si>
   <si>
     <t>Mateus</t>
+  </si>
+  <si>
+    <t>Filipe</t>
+  </si>
+  <si>
+    <t>Batata</t>
+  </si>
+  <si>
+    <t>Vinícius M.</t>
+  </si>
+  <si>
+    <t>Pedro (primo de Joao)</t>
   </si>
 </sst>
 </file>
@@ -436,11 +448,6 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11.0"/>
       <color rgb="FF2C481F"/>
       <name val="Calibri"/>
@@ -454,6 +461,11 @@
       <sz val="11.0"/>
       <color rgb="FF4C535E"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -514,7 +526,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -536,17 +548,14 @@
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
@@ -554,20 +563,14 @@
     <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -785,11 +788,11 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="5.86"/>
-    <col customWidth="1" min="2" max="2" width="15.86"/>
-    <col customWidth="1" min="3" max="3" width="14.43"/>
-    <col customWidth="1" min="4" max="4" width="21.14"/>
-    <col customWidth="1" min="5" max="5" width="23.57"/>
+    <col customWidth="1" min="1" max="1" width="6.0"/>
+    <col customWidth="1" min="2" max="2" width="19.86"/>
+    <col customWidth="1" min="3" max="3" width="14.86"/>
+    <col customWidth="1" min="4" max="4" width="21.86"/>
+    <col customWidth="1" min="5" max="5" width="24.29"/>
     <col customWidth="1" min="6" max="6" width="16.0"/>
     <col customWidth="1" min="7" max="7" width="11.0"/>
     <col customWidth="1" min="8" max="26" width="8.71"/>
@@ -826,7 +829,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="6">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -875,10 +878,10 @@
         <v>3.5</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>10</v>
@@ -941,13 +944,13 @@
         <v>18</v>
       </c>
       <c r="C7" s="6">
-        <v>3.5</v>
+        <v>3.0</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>10</v>
@@ -981,22 +984,22 @@
     </row>
     <row r="9">
       <c r="A9" s="4">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="6">
-        <v>3.5</v>
+        <v>3.0</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="F9" s="5" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>11</v>
@@ -1004,22 +1007,22 @@
     </row>
     <row r="10">
       <c r="A10" s="4">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="6">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>11</v>
@@ -1027,19 +1030,19 @@
     </row>
     <row r="11">
       <c r="A11" s="4">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="6">
-        <v>3.0</v>
+        <v>3.5</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>10</v>
@@ -1050,19 +1053,19 @@
     </row>
     <row r="12">
       <c r="A12" s="4">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="6">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>10</v>
@@ -1073,13 +1076,13 @@
     </row>
     <row r="13">
       <c r="A13" s="4">
-        <v>14.0</v>
+        <v>12.0</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="6">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>9</v>
@@ -1096,19 +1099,19 @@
     </row>
     <row r="14">
       <c r="A14" s="4">
-        <v>17.0</v>
+        <v>13.0</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="6">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>10</v>
@@ -1119,13 +1122,13 @@
     </row>
     <row r="15">
       <c r="A15" s="4">
-        <v>18.0</v>
+        <v>14.0</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" s="6">
-        <v>3.5</v>
+        <v>4.0</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>9</v>
@@ -1142,22 +1145,22 @@
     </row>
     <row r="16">
       <c r="A16" s="4">
-        <v>19.0</v>
+        <v>15.0</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" s="6">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>11</v>
@@ -1165,13 +1168,13 @@
     </row>
     <row r="17">
       <c r="A17" s="4">
-        <v>20.0</v>
+        <v>16.0</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" s="6">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>9</v>
@@ -1180,7 +1183,7 @@
         <v>14</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>11</v>
@@ -1188,19 +1191,19 @@
     </row>
     <row r="18">
       <c r="A18" s="4">
-        <v>22.0</v>
+        <v>17.0</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="6">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>10</v>
@@ -1211,16 +1214,16 @@
     </row>
     <row r="19">
       <c r="A19" s="4">
-        <v>37.0</v>
+        <v>18.0</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" s="6">
-        <v>3.0</v>
+        <v>3.5</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>8</v>
@@ -1234,16 +1237,16 @@
     </row>
     <row r="20">
       <c r="A20" s="4">
-        <v>42.0</v>
+        <v>19.0</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="6">
-        <v>3.0</v>
+        <v>2.5</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>14</v>
@@ -1257,19 +1260,19 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="4">
-        <v>43.0</v>
+        <v>20.0</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" s="6">
-        <v>3.5</v>
+        <v>2.0</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>10</v>
@@ -1280,22 +1283,22 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="4">
-        <v>44.0</v>
+        <v>21.0</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22" s="6">
-        <v>3.5</v>
+        <v>3.0</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>11</v>
@@ -1303,13 +1306,13 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="4">
-        <v>46.0</v>
+        <v>22.0</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23" s="6">
-        <v>3.5</v>
+        <v>3.0</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>9</v>
@@ -1326,22 +1329,22 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="4">
-        <v>48.0</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>14</v>
+        <v>23.0</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>11</v>
@@ -1349,22 +1352,22 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="4">
-        <v>54.0</v>
+        <v>24.0</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C25" s="6">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>11</v>
@@ -1372,22 +1375,22 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="4">
-        <v>57.0</v>
+        <v>25.0</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C26" s="6">
         <v>2.5</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>11</v>
@@ -1395,22 +1398,22 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="4">
-        <v>60.0</v>
+        <v>26.0</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C27" s="6">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>11</v>
@@ -1418,22 +1421,22 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="4">
-        <v>63.0</v>
+        <v>27.0</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C28" s="6">
-        <v>4.0</v>
+        <v>3.5</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>11</v>
@@ -1441,45 +1444,45 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="4">
-        <v>74.0</v>
+        <v>28.0</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C29" s="6">
-        <v>4.0</v>
+        <v>4.5</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="7">
-        <v>115.0</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>41</v>
+      <c r="A30" s="4">
+        <v>29.0</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="C30" s="8">
-        <v>2.5</v>
+        <v>5.0</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>11</v>
@@ -1487,22 +1490,22 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="4">
-        <v>62.0</v>
+        <v>30.0</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C31" s="6">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>11</v>
@@ -1510,22 +1513,22 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="4">
-        <v>8.0</v>
+        <v>31.0</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C32" s="6">
         <v>3.5</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>11</v>
@@ -1533,7 +1536,7 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="4">
-        <v>34.0</v>
+        <v>32.0</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>45</v>
@@ -1542,13 +1545,13 @@
         <v>2.5</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>11</v>
@@ -1556,22 +1559,22 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="4">
-        <v>28.0</v>
+        <v>33.0</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C34" s="6">
-        <v>4.5</v>
+        <v>2.0</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>11</v>
@@ -1579,22 +1582,22 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="4">
-        <v>39.0</v>
+        <v>34.0</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C35" s="6">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>11</v>
@@ -1602,22 +1605,22 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="4">
-        <v>9.0</v>
+        <v>35.0</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C36" s="6">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="F36" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>11</v>
@@ -1625,22 +1628,22 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="4">
-        <v>15.0</v>
+        <v>36.0</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C37" s="6">
-        <v>3.5</v>
+        <v>4.0</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>11</v>
@@ -1648,7 +1651,7 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="4">
-        <v>16.0</v>
+        <v>37.0</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>50</v>
@@ -1657,13 +1660,13 @@
         <v>3.0</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>11</v>
@@ -1671,22 +1674,22 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="4">
-        <v>21.0</v>
+        <v>38.0</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>51</v>
       </c>
       <c r="C39" s="6">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>11</v>
@@ -1694,22 +1697,22 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="4">
-        <v>23.0</v>
-      </c>
-      <c r="B40" s="9" t="s">
+        <v>39.0</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>9</v>
+      <c r="C40" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>11</v>
@@ -1717,7 +1720,7 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="4">
-        <v>24.0</v>
+        <v>40.0</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>53</v>
@@ -1726,13 +1729,13 @@
         <v>4.0</v>
       </c>
       <c r="D41" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="F41" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>11</v>
@@ -1740,13 +1743,13 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="4">
-        <v>25.0</v>
+        <v>41.0</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>54</v>
       </c>
       <c r="C42" s="6">
-        <v>2.5</v>
+        <v>3.0</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>9</v>
@@ -1755,7 +1758,7 @@
         <v>14</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>11</v>
@@ -1763,22 +1766,22 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="4">
-        <v>26.0</v>
+        <v>42.0</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>55</v>
       </c>
       <c r="C43" s="6">
-        <v>4.5</v>
+        <v>3.0</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>11</v>
@@ -1786,7 +1789,7 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="4">
-        <v>27.0</v>
+        <v>43.0</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>56</v>
@@ -1795,13 +1798,13 @@
         <v>3.5</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>11</v>
@@ -1809,22 +1812,22 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="4">
-        <v>29.0</v>
-      </c>
-      <c r="B45" s="9" t="s">
+        <v>44.0</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="10">
-        <v>5.0</v>
+      <c r="C45" s="6">
+        <v>3.5</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>11</v>
@@ -1832,22 +1835,22 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="4">
-        <v>30.0</v>
+        <v>45.0</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C46" s="6">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>11</v>
@@ -1855,7 +1858,7 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="4">
-        <v>31.0</v>
+        <v>46.0</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>59</v>
@@ -1864,13 +1867,13 @@
         <v>3.5</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>11</v>
@@ -1878,22 +1881,22 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="4">
-        <v>32.0</v>
+        <v>47.0</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>60</v>
       </c>
       <c r="C48" s="6">
-        <v>2.5</v>
+        <v>4.0</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>11</v>
@@ -1901,22 +1904,22 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="4">
-        <v>33.0</v>
+        <v>48.0</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>61</v>
       </c>
       <c r="C49" s="6">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>11</v>
@@ -1924,7 +1927,7 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="4">
-        <v>35.0</v>
+        <v>49.0</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>62</v>
@@ -1933,13 +1936,13 @@
         <v>4.0</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>11</v>
@@ -1947,22 +1950,22 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="4">
-        <v>36.0</v>
+        <v>50.0</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C51" s="6">
-        <v>4.0</v>
+        <v>2.5</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>11</v>
@@ -1970,22 +1973,22 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="4">
-        <v>38.0</v>
+        <v>51.0</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C52" s="6">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>11</v>
@@ -1993,7 +1996,7 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="4">
-        <v>40.0</v>
+        <v>52.0</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>65</v>
@@ -2002,13 +2005,13 @@
         <v>4.0</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>11</v>
@@ -2016,22 +2019,22 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="4">
-        <v>41.0</v>
+        <v>53.0</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>66</v>
       </c>
       <c r="C54" s="6">
-        <v>3.0</v>
+        <v>2.5</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>11</v>
@@ -2039,7 +2042,7 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="4">
-        <v>45.0</v>
+        <v>54.0</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>67</v>
@@ -2048,13 +2051,13 @@
         <v>3.0</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>11</v>
@@ -2062,13 +2065,13 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="4">
-        <v>47.0</v>
+        <v>55.0</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>68</v>
       </c>
       <c r="C56" s="6">
-        <v>4.0</v>
+        <v>3.5</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>9</v>
@@ -2077,7 +2080,7 @@
         <v>8</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>11</v>
@@ -2085,22 +2088,22 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="4">
-        <v>49.0</v>
+        <v>56.0</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>69</v>
       </c>
       <c r="C57" s="6">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>11</v>
@@ -2108,7 +2111,7 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="4">
-        <v>50.0</v>
+        <v>57.0</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>70</v>
@@ -2117,13 +2120,13 @@
         <v>2.5</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>11</v>
@@ -2131,13 +2134,13 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="4">
-        <v>51.0</v>
+        <v>58.0</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>71</v>
       </c>
       <c r="C59" s="6">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>9</v>
@@ -2146,7 +2149,7 @@
         <v>14</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G59" s="5" t="s">
         <v>11</v>
@@ -2154,22 +2157,22 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="4">
-        <v>52.0</v>
+        <v>59.0</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>72</v>
       </c>
       <c r="C60" s="6">
-        <v>4.0</v>
+        <v>2.5</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>11</v>
@@ -2177,13 +2180,13 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="4">
-        <v>53.0</v>
+        <v>60.0</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>73</v>
       </c>
       <c r="C61" s="6">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>13</v>
@@ -2192,7 +2195,7 @@
         <v>14</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="G61" s="5" t="s">
         <v>11</v>
@@ -2200,22 +2203,22 @@
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="4">
-        <v>55.0</v>
+        <v>61.0</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>74</v>
       </c>
       <c r="C62" s="6">
-        <v>3.5</v>
+        <v>4.0</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G62" s="5" t="s">
         <v>11</v>
@@ -2223,22 +2226,22 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="4">
-        <v>56.0</v>
+        <v>62.0</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>75</v>
       </c>
       <c r="C63" s="6">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>11</v>
@@ -2246,7 +2249,7 @@
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="4">
-        <v>58.0</v>
+        <v>63.0</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>76</v>
@@ -2255,13 +2258,13 @@
         <v>4.0</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="G64" s="5" t="s">
         <v>11</v>
@@ -2269,22 +2272,22 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="4">
-        <v>59.0</v>
+        <v>64.0</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>77</v>
       </c>
       <c r="C65" s="6">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G65" s="5" t="s">
         <v>11</v>
@@ -2292,22 +2295,22 @@
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="4">
-        <v>61.0</v>
-      </c>
-      <c r="B66" s="5" t="s">
+        <v>65.0</v>
+      </c>
+      <c r="B66" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C66" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>14</v>
+      <c r="C66" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G66" s="5" t="s">
         <v>11</v>
@@ -2315,22 +2318,22 @@
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="4">
-        <v>64.0</v>
+        <v>66.0</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>79</v>
       </c>
       <c r="C67" s="6">
-        <v>3.5</v>
+        <v>3.0</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G67" s="5" t="s">
         <v>11</v>
@@ -2338,22 +2341,22 @@
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="4">
-        <v>65.0</v>
-      </c>
-      <c r="B68" s="9" t="s">
+        <v>67.0</v>
+      </c>
+      <c r="B68" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C68" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E68" s="12" t="s">
-        <v>9</v>
+      <c r="C68" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G68" s="5" t="s">
         <v>11</v>
@@ -2361,7 +2364,7 @@
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="4">
-        <v>66.0</v>
+        <v>68.0</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>81</v>
@@ -2376,7 +2379,7 @@
         <v>8</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G69" s="5" t="s">
         <v>11</v>
@@ -2384,22 +2387,22 @@
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="4">
-        <v>67.0</v>
+        <v>69.0</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>82</v>
       </c>
       <c r="C70" s="6">
-        <v>4.0</v>
+        <v>3.5</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G70" s="5" t="s">
         <v>11</v>
@@ -2407,7 +2410,7 @@
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="4">
-        <v>68.0</v>
+        <v>70.0</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>83</v>
@@ -2416,13 +2419,13 @@
         <v>3.0</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G71" s="5" t="s">
         <v>11</v>
@@ -2430,22 +2433,22 @@
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="4">
-        <v>69.0</v>
+        <v>71.0</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>84</v>
       </c>
       <c r="C72" s="6">
-        <v>3.5</v>
+        <v>3.0</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G72" s="5" t="s">
         <v>11</v>
@@ -2453,22 +2456,22 @@
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="4">
-        <v>70.0</v>
+        <v>72.0</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>85</v>
       </c>
       <c r="C73" s="6">
-        <v>3.0</v>
+        <v>2.5</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G73" s="5" t="s">
         <v>11</v>
@@ -2476,7 +2479,7 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="4">
-        <v>71.0</v>
+        <v>73.0</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>86</v>
@@ -2485,13 +2488,13 @@
         <v>3.0</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G74" s="5" t="s">
         <v>11</v>
@@ -2499,22 +2502,22 @@
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="4">
-        <v>72.0</v>
+        <v>74.0</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>87</v>
       </c>
       <c r="C75" s="6">
-        <v>2.5</v>
+        <v>4.0</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="G75" s="5" t="s">
         <v>11</v>
@@ -2522,7 +2525,7 @@
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="4">
-        <v>73.0</v>
+        <v>75.0</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>88</v>
@@ -2531,13 +2534,13 @@
         <v>3.0</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G76" s="5" t="s">
         <v>11</v>
@@ -2545,22 +2548,22 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="4">
-        <v>75.0</v>
+        <v>76.0</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>89</v>
       </c>
       <c r="C77" s="6">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G77" s="5" t="s">
         <v>11</v>
@@ -2568,13 +2571,13 @@
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="4">
-        <v>76.0</v>
+        <v>77.0</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>90</v>
       </c>
       <c r="C78" s="6">
-        <v>4.0</v>
+        <v>2.5</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>9</v>
@@ -2583,7 +2586,7 @@
         <v>14</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G78" s="5" t="s">
         <v>11</v>
@@ -2591,22 +2594,22 @@
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="4">
-        <v>77.0</v>
+        <v>78.0</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>91</v>
       </c>
       <c r="C79" s="6">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G79" s="5" t="s">
         <v>11</v>
@@ -2614,22 +2617,22 @@
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="4">
-        <v>78.0</v>
+        <v>79.0</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>92</v>
       </c>
       <c r="C80" s="6">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G80" s="5" t="s">
         <v>11</v>
@@ -2637,7 +2640,7 @@
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="4">
-        <v>79.0</v>
+        <v>80.0</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>93</v>
@@ -2646,13 +2649,13 @@
         <v>3.5</v>
       </c>
       <c r="D81" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E81" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="F81" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G81" s="5" t="s">
         <v>11</v>
@@ -2660,22 +2663,22 @@
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="4">
-        <v>80.0</v>
+        <v>81.0</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>94</v>
       </c>
       <c r="C82" s="6">
-        <v>3.5</v>
+        <v>3.0</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G82" s="5" t="s">
         <v>11</v>
@@ -2683,13 +2686,13 @@
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="4">
-        <v>81.0</v>
+        <v>82.0</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>95</v>
       </c>
       <c r="C83" s="6">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>8</v>
@@ -2698,7 +2701,7 @@
         <v>9</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G83" s="5" t="s">
         <v>11</v>
@@ -2706,22 +2709,22 @@
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="4">
-        <v>82.0</v>
+        <v>83.0</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>96</v>
       </c>
       <c r="C84" s="6">
-        <v>5.0</v>
+        <v>3.5</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G84" s="5" t="s">
         <v>11</v>
@@ -2729,22 +2732,22 @@
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="4">
-        <v>83.0</v>
+        <v>84.0</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>97</v>
       </c>
       <c r="C85" s="6">
-        <v>3.5</v>
+        <v>2.0</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G85" s="5" t="s">
         <v>11</v>
@@ -2752,22 +2755,22 @@
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="4">
-        <v>84.0</v>
+        <v>85.0</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>98</v>
       </c>
       <c r="C86" s="6">
-        <v>2.0</v>
+        <v>3.5</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G86" s="5" t="s">
         <v>11</v>
@@ -2775,22 +2778,22 @@
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="4">
-        <v>85.0</v>
+        <v>86.0</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>99</v>
       </c>
       <c r="C87" s="6">
-        <v>3.0</v>
+        <v>3.5</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G87" s="5" t="s">
         <v>11</v>
@@ -2798,22 +2801,22 @@
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="4">
-        <v>86.0</v>
+        <v>87.0</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>100</v>
       </c>
       <c r="C88" s="6">
-        <v>3.5</v>
+        <v>3.0</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G88" s="5" t="s">
         <v>11</v>
@@ -2821,13 +2824,13 @@
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="4">
-        <v>87.0</v>
+        <v>88.0</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>101</v>
       </c>
       <c r="C89" s="6">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D89" s="5" t="s">
         <v>9</v>
@@ -2836,7 +2839,7 @@
         <v>8</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G89" s="5" t="s">
         <v>11</v>
@@ -2844,22 +2847,22 @@
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="4">
-        <v>88.0</v>
+        <v>89.0</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>102</v>
       </c>
       <c r="C90" s="6">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G90" s="5" t="s">
         <v>11</v>
@@ -2867,13 +2870,13 @@
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="4">
-        <v>89.0</v>
+        <v>90.0</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>103</v>
       </c>
       <c r="C91" s="6">
-        <v>4.0</v>
+        <v>3.5</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>8</v>
@@ -2882,7 +2885,7 @@
         <v>9</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G91" s="5" t="s">
         <v>11</v>
@@ -2890,22 +2893,22 @@
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="4">
-        <v>90.0</v>
+        <v>91.0</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>104</v>
       </c>
       <c r="C92" s="6">
-        <v>3.5</v>
+        <v>3.0</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G92" s="5" t="s">
         <v>11</v>
@@ -2913,22 +2916,22 @@
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="4">
-        <v>91.0</v>
+        <v>92.0</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>105</v>
       </c>
       <c r="C93" s="6">
-        <v>3.0</v>
+        <v>4.5</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G93" s="5" t="s">
         <v>11</v>
@@ -2936,22 +2939,22 @@
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="4">
-        <v>92.0</v>
+        <v>93.0</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>106</v>
       </c>
       <c r="C94" s="6">
-        <v>4.5</v>
+        <v>4.0</v>
       </c>
       <c r="D94" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G94" s="5" t="s">
         <v>11</v>
@@ -2959,7 +2962,7 @@
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="4">
-        <v>93.0</v>
+        <v>94.0</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>107</v>
@@ -2968,13 +2971,13 @@
         <v>4.0</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G95" s="5" t="s">
         <v>11</v>
@@ -2982,22 +2985,22 @@
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="4">
-        <v>94.0</v>
+        <v>95.0</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>108</v>
       </c>
       <c r="C96" s="6">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G96" s="5" t="s">
         <v>11</v>
@@ -3005,7 +3008,7 @@
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="4">
-        <v>95.0</v>
+        <v>96.0</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>109</v>
@@ -3020,7 +3023,7 @@
         <v>9</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G97" s="5" t="s">
         <v>11</v>
@@ -3028,22 +3031,22 @@
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="4">
-        <v>96.0</v>
+        <v>97.0</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>110</v>
       </c>
       <c r="C98" s="6">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G98" s="5" t="s">
         <v>11</v>
@@ -3051,22 +3054,22 @@
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="4">
-        <v>97.0</v>
+        <v>98.0</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>111</v>
       </c>
       <c r="C99" s="6">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G99" s="5" t="s">
         <v>11</v>
@@ -3074,22 +3077,22 @@
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="4">
-        <v>98.0</v>
+        <v>99.0</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>112</v>
       </c>
       <c r="C100" s="6">
-        <v>4.0</v>
+        <v>3.5</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G100" s="5" t="s">
         <v>11</v>
@@ -3097,22 +3100,22 @@
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="4">
-        <v>99.0</v>
+        <v>100.0</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>113</v>
       </c>
       <c r="C101" s="6">
-        <v>3.5</v>
+        <v>2.0</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G101" s="5" t="s">
         <v>11</v>
@@ -3120,13 +3123,13 @@
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="4">
-        <v>100.0</v>
+        <v>101.0</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>114</v>
       </c>
       <c r="C102" s="6">
-        <v>2.0</v>
+        <v>3.5</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>8</v>
@@ -3135,7 +3138,7 @@
         <v>9</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G102" s="5" t="s">
         <v>11</v>
@@ -3143,22 +3146,22 @@
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="4">
-        <v>101.0</v>
+        <v>102.0</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>115</v>
       </c>
       <c r="C103" s="6">
-        <v>3.5</v>
+        <v>3.0</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G103" s="5" t="s">
         <v>11</v>
@@ -3166,22 +3169,22 @@
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="4">
-        <v>102.0</v>
+        <v>103.0</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>116</v>
       </c>
       <c r="C104" s="6">
-        <v>3.0</v>
+        <v>4.5</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G104" s="5" t="s">
         <v>11</v>
@@ -3189,7 +3192,7 @@
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="4">
-        <v>103.0</v>
+        <v>104.0</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>117</v>
@@ -3201,10 +3204,10 @@
         <v>8</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G105" s="5" t="s">
         <v>11</v>
@@ -3212,13 +3215,13 @@
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="4">
-        <v>104.0</v>
+        <v>105.0</v>
       </c>
       <c r="B106" s="5" t="s">
         <v>118</v>
       </c>
       <c r="C106" s="6">
-        <v>4.5</v>
+        <v>3.0</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>8</v>
@@ -3227,7 +3230,7 @@
         <v>13</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G106" s="5" t="s">
         <v>11</v>
@@ -3235,22 +3238,22 @@
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="4">
-        <v>105.0</v>
+        <v>106.0</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>119</v>
       </c>
       <c r="C107" s="6">
-        <v>3.0</v>
+        <v>2.5</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G107" s="5" t="s">
         <v>11</v>
@@ -3258,219 +3261,219 @@
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="4">
-        <v>106.0</v>
+        <v>107.0</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>120</v>
       </c>
       <c r="C108" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" ht="15.75" customHeight="1">
+      <c r="A109" s="12">
+        <v>108.0</v>
+      </c>
+      <c r="B109" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C109" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G109" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" ht="15.75" customHeight="1">
+      <c r="A110" s="12">
+        <v>109.0</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C110" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G110" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" ht="15.75" customHeight="1">
+      <c r="A111" s="12">
+        <v>110.0</v>
+      </c>
+      <c r="B111" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C111" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G111" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" ht="15.75" customHeight="1">
+      <c r="A112" s="12">
+        <v>111.0</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C112" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" ht="15.75" customHeight="1">
+      <c r="A113" s="12">
+        <v>112.0</v>
+      </c>
+      <c r="B113" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C113" s="12">
         <v>2.5</v>
       </c>
-      <c r="D108" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F108" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G108" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="14">
-        <v>107.0</v>
-      </c>
-      <c r="B109" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="C109" s="14">
-        <v>5.0</v>
-      </c>
-      <c r="D109" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F109" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G109" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="16">
-        <v>108.0</v>
-      </c>
-      <c r="B110" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="C110" s="16">
-        <v>3.0</v>
-      </c>
-      <c r="D110" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E110" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F110" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G110" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="16">
-        <v>109.0</v>
-      </c>
-      <c r="B111" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="C111" s="16">
+      <c r="D113" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G113" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" ht="15.75" customHeight="1">
+      <c r="A114" s="12">
+        <v>113.0</v>
+      </c>
+      <c r="B114" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C114" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G114" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" ht="15.75" customHeight="1">
+      <c r="A115" s="12">
+        <v>114.0</v>
+      </c>
+      <c r="B115" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C115" s="12">
         <v>3.5</v>
       </c>
-      <c r="D111" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E111" s="5" t="s">
+      <c r="D115" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G115" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" ht="15.75" customHeight="1">
+      <c r="A116" s="12">
+        <v>115.0</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C116" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="D116" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F111" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G111" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="16">
-        <v>110.0</v>
-      </c>
-      <c r="B112" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="C112" s="16">
-        <v>4.0</v>
-      </c>
-      <c r="D112" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F112" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G112" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="16">
-        <v>111.0</v>
-      </c>
-      <c r="B113" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="C113" s="16">
-        <v>3.0</v>
-      </c>
-      <c r="D113" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E113" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F113" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G113" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="16">
-        <v>112.0</v>
-      </c>
-      <c r="B114" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="C114" s="16">
-        <v>2.5</v>
-      </c>
-      <c r="D114" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E114" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F114" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G114" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="16">
-        <v>113.0</v>
-      </c>
-      <c r="B115" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="C115" s="16">
-        <v>4.0</v>
-      </c>
-      <c r="D115" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E115" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F115" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G115" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="16">
-        <v>114.0</v>
-      </c>
-      <c r="B116" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="C116" s="16">
-        <v>3.5</v>
-      </c>
-      <c r="D116" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="E116" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="G116" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="16">
+      <c r="A117" s="12">
         <v>115.0</v>
       </c>
-      <c r="B117" s="16" t="s">
+      <c r="B117" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C117" s="16">
+      <c r="C117" s="12">
         <v>3.5</v>
       </c>
       <c r="D117" s="5" t="s">
@@ -3480,20 +3483,20 @@
         <v>13</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G117" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="16">
+      <c r="A118" s="12">
         <v>116.0</v>
       </c>
-      <c r="B118" s="16" t="s">
+      <c r="B118" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="C118" s="16">
+      <c r="C118" s="12">
         <v>2.5</v>
       </c>
       <c r="D118" s="5" t="s">
@@ -3503,16 +3506,104 @@
         <v>14</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G118" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1">
+      <c r="A119" s="12">
+        <v>117.0</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C119" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="D119" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E119" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F119" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G119" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" ht="15.75" customHeight="1">
+      <c r="A120" s="12">
+        <v>118.0</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C120" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="D120" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E120" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F120" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G120" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" ht="15.75" customHeight="1">
+      <c r="A121" s="13">
+        <v>119.0</v>
+      </c>
+      <c r="B121" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C121" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E121" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G121" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" ht="15.75" customHeight="1">
+      <c r="A122" s="13">
+        <v>120.0</v>
+      </c>
+      <c r="B122" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C122" s="13">
+        <v>3.4</v>
+      </c>
+      <c r="D122" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E122" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F122" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G122" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="123" ht="15.75" customHeight="1"/>
     <row r="124" ht="15.75" customHeight="1"/>
     <row r="125" ht="15.75" customHeight="1"/>
@@ -4396,17 +4487,18 @@
   </sheetData>
   <autoFilter ref="$A$1:$G$117">
     <sortState ref="A1:G117">
+      <sortCondition ref="A1:A117"/>
       <sortCondition descending="1" ref="F1:F117"/>
     </sortState>
   </autoFilter>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F118">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F121">
       <formula1>"mensalista,diarista"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D89 D90:E90 D91:D96 D97:E97 D98:D99 D100:E100 D102:E103 E104 D105:E105 D106:D107 D108:E108 D109 D110:E110 D111 D112:E112 D113:D118">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D88 D89:E89 D90:D95 D96:E96 D97:D98 D99:E99 D101:E102 E103 D104:E104 D105:D106 D107:E107 D108 D109:E109 D110 D111:E111 D112:D121">
       <formula1>"meia,zagueiro,atacante,qualquer"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E89 E91:E96 E98:E99 D101:E101 D104 E106:E107 E109 E111 E113:E118">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E88 E90:E95 E97:E98 D100:E100 D103 E105:E106 E108 E110 E112:E121">
       <formula1>"atacante,nenhum,meia,zagueiro,qualquer"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Sorteio Times Futebol/Versão 8.0/Preparação Sorteio/bancodedados.xlsx
+++ b/Sorteio Times Futebol/Versão 8.0/Preparação Sorteio/bancodedados.xlsx
@@ -80,6 +80,75 @@
     <t>Diego Rocha</t>
   </si>
   <si>
+    <t>Flávio Ribeiro</t>
+  </si>
+  <si>
+    <t>Kiel</t>
+  </si>
+  <si>
+    <t>Lucas H.</t>
+  </si>
+  <si>
+    <t>Lucas S.</t>
+  </si>
+  <si>
+    <t>Manga</t>
+  </si>
+  <si>
+    <t>Paulo Thiago</t>
+  </si>
+  <si>
+    <t>Raphael B.</t>
+  </si>
+  <si>
+    <t>Teixa</t>
+  </si>
+  <si>
+    <t>Victor Chaves</t>
+  </si>
+  <si>
+    <t>Grimauro</t>
+  </si>
+  <si>
+    <t>Ícaro Feitosa</t>
+  </si>
+  <si>
+    <t>Juninho</t>
+  </si>
+  <si>
+    <t>Lázaro</t>
+  </si>
+  <si>
+    <t>Léo A.</t>
+  </si>
+  <si>
+    <t>Marcos S.</t>
+  </si>
+  <si>
+    <t>Nagibio</t>
+  </si>
+  <si>
+    <t>Rafa Ribeiro</t>
+  </si>
+  <si>
+    <t>Sérgio Falcão</t>
+  </si>
+  <si>
+    <t>Túlio</t>
+  </si>
+  <si>
+    <t>Xandinho</t>
+  </si>
+  <si>
+    <t>Thayan</t>
+  </si>
+  <si>
+    <t>João Vitor</t>
+  </si>
+  <si>
+    <t>Japa</t>
+  </si>
+  <si>
     <t>Eduardo</t>
   </si>
   <si>
@@ -89,45 +158,18 @@
     <t>Eric</t>
   </si>
   <si>
-    <t>Flávio Ribeiro</t>
-  </si>
-  <si>
-    <t>Kiel</t>
-  </si>
-  <si>
-    <t>Lucas H.</t>
-  </si>
-  <si>
-    <t>Lucas S.</t>
-  </si>
-  <si>
-    <t>Manga</t>
-  </si>
-  <si>
     <t>Marcelinho</t>
   </si>
   <si>
     <t>Niclaudio</t>
   </si>
   <si>
-    <t>Paulo Thiago</t>
-  </si>
-  <si>
-    <t>Raphael B.</t>
-  </si>
-  <si>
-    <t>Teixa</t>
-  </si>
-  <si>
     <t>Thiago Alemão</t>
   </si>
   <si>
     <t>Victor Assis</t>
   </si>
   <si>
-    <t>Victor Chaves</t>
-  </si>
-  <si>
     <t>Vinicius</t>
   </si>
   <si>
@@ -161,18 +203,12 @@
     <t>Gabriel</t>
   </si>
   <si>
-    <t>Grimauro</t>
-  </si>
-  <si>
     <t>Henrique Silva</t>
   </si>
   <si>
     <t>Henrique Souza</t>
   </si>
   <si>
-    <t>Ícaro Feitosa</t>
-  </si>
-  <si>
     <t>Italo</t>
   </si>
   <si>
@@ -185,27 +221,12 @@
     <t>Jorge</t>
   </si>
   <si>
-    <t>Juninho</t>
-  </si>
-  <si>
-    <t>Lázaro</t>
-  </si>
-  <si>
-    <t>Léo A.</t>
-  </si>
-  <si>
     <t>Lucas P.</t>
   </si>
   <si>
-    <t>Marcos S.</t>
-  </si>
-  <si>
     <t>Matheus</t>
   </si>
   <si>
-    <t>Nagibio</t>
-  </si>
-  <si>
     <t>Nestor</t>
   </si>
   <si>
@@ -221,36 +242,21 @@
     <t>Pou</t>
   </si>
   <si>
-    <t>Rafa Ribeiro</t>
-  </si>
-  <si>
     <t>Renan</t>
   </si>
   <si>
     <t>Ronaldinho</t>
   </si>
   <si>
-    <t>Sérgio Falcão</t>
-  </si>
-  <si>
     <t>Teffinho</t>
   </si>
   <si>
     <t>Teteca</t>
   </si>
   <si>
-    <t>Túlio</t>
-  </si>
-  <si>
     <t>Vinicinho</t>
   </si>
   <si>
-    <t>Xandinho</t>
-  </si>
-  <si>
-    <t>Thayan</t>
-  </si>
-  <si>
     <t>Flavio Ureia</t>
   </si>
   <si>
@@ -281,9 +287,6 @@
     <t>Vitinho</t>
   </si>
   <si>
-    <t>João Vitor</t>
-  </si>
-  <si>
     <t>Cauã</t>
   </si>
   <si>
@@ -402,9 +405,6 @@
   </si>
   <si>
     <t>Allan Kennedy</t>
-  </si>
-  <si>
-    <t>Japa</t>
   </si>
   <si>
     <t>Gabriel Medeiros</t>
@@ -448,6 +448,11 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11.0"/>
       <color rgb="FF2C481F"/>
       <name val="Calibri"/>
@@ -461,11 +466,6 @@
       <sz val="11.0"/>
       <color rgb="FF4C535E"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -526,7 +526,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -548,14 +548,17 @@
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
@@ -563,14 +566,20 @@
     <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -984,22 +993,22 @@
     </row>
     <row r="9">
       <c r="A9" s="4">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="6">
-        <v>3.0</v>
+        <v>3.5</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>11</v>
@@ -1007,22 +1016,22 @@
     </row>
     <row r="10">
       <c r="A10" s="4">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="6">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>11</v>
@@ -1030,19 +1039,19 @@
     </row>
     <row r="11">
       <c r="A11" s="4">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="6">
-        <v>3.5</v>
+        <v>3.0</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>10</v>
@@ -1053,19 +1062,19 @@
     </row>
     <row r="12">
       <c r="A12" s="4">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="6">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>10</v>
@@ -1076,13 +1085,13 @@
     </row>
     <row r="13">
       <c r="A13" s="4">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="6">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>9</v>
@@ -1099,19 +1108,19 @@
     </row>
     <row r="14">
       <c r="A14" s="4">
-        <v>13.0</v>
+        <v>17.0</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="6">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>10</v>
@@ -1122,13 +1131,13 @@
     </row>
     <row r="15">
       <c r="A15" s="4">
-        <v>14.0</v>
+        <v>18.0</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="6">
-        <v>4.0</v>
+        <v>3.5</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>9</v>
@@ -1145,22 +1154,22 @@
     </row>
     <row r="16">
       <c r="A16" s="4">
-        <v>15.0</v>
+        <v>19.0</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="6">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>11</v>
@@ -1168,10 +1177,10 @@
     </row>
     <row r="17">
       <c r="A17" s="4">
-        <v>16.0</v>
+        <v>22.0</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="6">
         <v>3.0</v>
@@ -1180,10 +1189,10 @@
         <v>9</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>11</v>
@@ -1191,19 +1200,19 @@
     </row>
     <row r="18">
       <c r="A18" s="4">
-        <v>17.0</v>
+        <v>34.0</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="6">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>10</v>
@@ -1214,16 +1223,16 @@
     </row>
     <row r="19">
       <c r="A19" s="4">
-        <v>18.0</v>
+        <v>37.0</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="6">
-        <v>3.5</v>
+        <v>3.0</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>8</v>
@@ -1237,16 +1246,16 @@
     </row>
     <row r="20">
       <c r="A20" s="4">
-        <v>19.0</v>
+        <v>42.0</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" s="6">
-        <v>2.5</v>
+        <v>3.0</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>14</v>
@@ -1260,19 +1269,19 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="4">
-        <v>20.0</v>
+        <v>43.0</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" s="6">
-        <v>2.0</v>
+        <v>3.5</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>10</v>
@@ -1283,22 +1292,22 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="4">
-        <v>21.0</v>
+        <v>44.0</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" s="6">
-        <v>3.0</v>
+        <v>3.5</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>11</v>
@@ -1306,13 +1315,13 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="4">
-        <v>22.0</v>
+        <v>46.0</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" s="6">
-        <v>3.0</v>
+        <v>3.5</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>9</v>
@@ -1329,22 +1338,22 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="4">
-        <v>23.0</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="8">
-        <v>5.0</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>9</v>
+        <v>48.0</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>11</v>
@@ -1352,22 +1361,22 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="4">
-        <v>24.0</v>
+        <v>54.0</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25" s="6">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>11</v>
@@ -1375,22 +1384,22 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="4">
-        <v>25.0</v>
+        <v>57.0</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" s="6">
         <v>2.5</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>11</v>
@@ -1398,22 +1407,22 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="4">
-        <v>26.0</v>
+        <v>60.0</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="6">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>11</v>
@@ -1421,22 +1430,22 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="4">
-        <v>27.0</v>
+        <v>62.0</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28" s="6">
-        <v>3.5</v>
+        <v>1.0</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>11</v>
@@ -1444,22 +1453,22 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="4">
-        <v>28.0</v>
+        <v>63.0</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29" s="6">
-        <v>4.5</v>
+        <v>4.0</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>11</v>
@@ -1467,45 +1476,45 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="4">
-        <v>29.0</v>
-      </c>
-      <c r="B30" s="7" t="s">
+        <v>74.0</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="7">
+        <v>115.0</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="8">
-        <v>5.0</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="4">
-        <v>30.0</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="6">
-        <v>5.0</v>
+      <c r="C31" s="8">
+        <v>2.5</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>11</v>
@@ -1513,22 +1522,22 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="4">
-        <v>31.0</v>
+        <v>8.0</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C32" s="6">
-        <v>3.5</v>
+        <v>3.0</v>
       </c>
       <c r="D32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="F32" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>11</v>
@@ -1536,22 +1545,22 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="4">
-        <v>32.0</v>
+        <v>9.0</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C33" s="6">
-        <v>2.5</v>
+        <v>3.0</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>11</v>
@@ -1559,22 +1568,22 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="4">
-        <v>33.0</v>
+        <v>15.0</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C34" s="6">
-        <v>2.0</v>
+        <v>3.5</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>11</v>
@@ -1582,13 +1591,13 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="4">
-        <v>34.0</v>
+        <v>16.0</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C35" s="6">
-        <v>2.5</v>
+        <v>3.0</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>9</v>
@@ -1597,7 +1606,7 @@
         <v>14</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>11</v>
@@ -1605,22 +1614,22 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="4">
-        <v>35.0</v>
+        <v>20.0</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C36" s="6">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>11</v>
@@ -1628,22 +1637,22 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="4">
-        <v>36.0</v>
+        <v>21.0</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C37" s="6">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>11</v>
@@ -1651,22 +1660,22 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="4">
-        <v>37.0</v>
-      </c>
-      <c r="B38" s="5" t="s">
+        <v>23.0</v>
+      </c>
+      <c r="B38" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>8</v>
+      <c r="C38" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>11</v>
@@ -1674,7 +1683,7 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="4">
-        <v>38.0</v>
+        <v>24.0</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>51</v>
@@ -1683,13 +1692,13 @@
         <v>4.0</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>11</v>
@@ -1697,22 +1706,22 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="4">
-        <v>39.0</v>
+        <v>25.0</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>52</v>
       </c>
       <c r="C40" s="6">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>11</v>
@@ -1720,22 +1729,22 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="4">
-        <v>40.0</v>
+        <v>26.0</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C41" s="6">
-        <v>4.0</v>
+        <v>4.5</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>11</v>
@@ -1743,22 +1752,22 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="4">
-        <v>41.0</v>
+        <v>27.0</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>54</v>
       </c>
       <c r="C42" s="6">
-        <v>3.0</v>
+        <v>3.5</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>11</v>
@@ -1766,13 +1775,13 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="4">
-        <v>42.0</v>
+        <v>28.0</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>55</v>
       </c>
       <c r="C43" s="6">
-        <v>3.0</v>
+        <v>4.5</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>13</v>
@@ -1781,7 +1790,7 @@
         <v>14</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>11</v>
@@ -1789,22 +1798,22 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="4">
-        <v>43.0</v>
-      </c>
-      <c r="B44" s="5" t="s">
+        <v>29.0</v>
+      </c>
+      <c r="B44" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C44" s="6">
-        <v>3.5</v>
+      <c r="C44" s="10">
+        <v>5.0</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>11</v>
@@ -1812,22 +1821,22 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="4">
-        <v>44.0</v>
+        <v>30.0</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C45" s="6">
-        <v>3.5</v>
+        <v>5.0</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>11</v>
@@ -1835,22 +1844,22 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="4">
-        <v>45.0</v>
+        <v>31.0</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C46" s="6">
-        <v>3.0</v>
+        <v>3.5</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>11</v>
@@ -1858,22 +1867,22 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="4">
-        <v>46.0</v>
+        <v>32.0</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C47" s="6">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>11</v>
@@ -1881,22 +1890,22 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="4">
-        <v>47.0</v>
+        <v>33.0</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>60</v>
       </c>
       <c r="C48" s="6">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>11</v>
@@ -1904,22 +1913,22 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="4">
-        <v>48.0</v>
+        <v>35.0</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>61</v>
       </c>
       <c r="C49" s="6">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>11</v>
@@ -1927,7 +1936,7 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="4">
-        <v>49.0</v>
+        <v>36.0</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>62</v>
@@ -1936,13 +1945,13 @@
         <v>4.0</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>11</v>
@@ -1950,22 +1959,22 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="4">
-        <v>50.0</v>
+        <v>38.0</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C51" s="6">
-        <v>2.5</v>
+        <v>4.0</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>11</v>
@@ -1973,22 +1982,22 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="4">
-        <v>51.0</v>
+        <v>39.0</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C52" s="6">
-        <v>3.0</v>
+        <v>4.5</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>11</v>
@@ -1996,7 +2005,7 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="4">
-        <v>52.0</v>
+        <v>40.0</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>65</v>
@@ -2005,13 +2014,13 @@
         <v>4.0</v>
       </c>
       <c r="D53" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E53" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="F53" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>11</v>
@@ -2019,22 +2028,22 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="4">
-        <v>53.0</v>
+        <v>41.0</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>66</v>
       </c>
       <c r="C54" s="6">
-        <v>2.5</v>
+        <v>3.0</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>11</v>
@@ -2042,7 +2051,7 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="4">
-        <v>54.0</v>
+        <v>45.0</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>67</v>
@@ -2051,13 +2060,13 @@
         <v>3.0</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>11</v>
@@ -2065,13 +2074,13 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="4">
-        <v>55.0</v>
+        <v>47.0</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>68</v>
       </c>
       <c r="C56" s="6">
-        <v>3.5</v>
+        <v>4.0</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>9</v>
@@ -2080,7 +2089,7 @@
         <v>8</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>11</v>
@@ -2088,22 +2097,22 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="4">
-        <v>56.0</v>
+        <v>49.0</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>69</v>
       </c>
       <c r="C57" s="6">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>11</v>
@@ -2111,7 +2120,7 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="4">
-        <v>57.0</v>
+        <v>50.0</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>70</v>
@@ -2120,13 +2129,13 @@
         <v>2.5</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>11</v>
@@ -2134,13 +2143,13 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="4">
-        <v>58.0</v>
+        <v>51.0</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>71</v>
       </c>
       <c r="C59" s="6">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>9</v>
@@ -2149,7 +2158,7 @@
         <v>14</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G59" s="5" t="s">
         <v>11</v>
@@ -2157,22 +2166,22 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="4">
-        <v>59.0</v>
+        <v>52.0</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>72</v>
       </c>
       <c r="C60" s="6">
-        <v>2.5</v>
+        <v>4.0</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>11</v>
@@ -2180,13 +2189,13 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="4">
-        <v>60.0</v>
+        <v>53.0</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>73</v>
       </c>
       <c r="C61" s="6">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>13</v>
@@ -2195,7 +2204,7 @@
         <v>14</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="G61" s="5" t="s">
         <v>11</v>
@@ -2203,22 +2212,22 @@
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="4">
-        <v>61.0</v>
+        <v>55.0</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>74</v>
       </c>
       <c r="C62" s="6">
-        <v>4.0</v>
+        <v>3.5</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G62" s="5" t="s">
         <v>11</v>
@@ -2226,22 +2235,22 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="4">
-        <v>62.0</v>
+        <v>56.0</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>75</v>
       </c>
       <c r="C63" s="6">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>11</v>
@@ -2249,7 +2258,7 @@
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="4">
-        <v>63.0</v>
+        <v>58.0</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>76</v>
@@ -2258,13 +2267,13 @@
         <v>4.0</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="G64" s="5" t="s">
         <v>11</v>
@@ -2272,22 +2281,22 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="4">
-        <v>64.0</v>
+        <v>59.0</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>77</v>
       </c>
       <c r="C65" s="6">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G65" s="5" t="s">
         <v>11</v>
@@ -2295,22 +2304,22 @@
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="4">
-        <v>65.0</v>
-      </c>
-      <c r="B66" s="7" t="s">
+        <v>61.0</v>
+      </c>
+      <c r="B66" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C66" s="8">
-        <v>5.0</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>9</v>
+      <c r="C66" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G66" s="5" t="s">
         <v>11</v>
@@ -2318,22 +2327,22 @@
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="4">
-        <v>66.0</v>
+        <v>64.0</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>79</v>
       </c>
       <c r="C67" s="6">
-        <v>3.0</v>
+        <v>3.5</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G67" s="5" t="s">
         <v>11</v>
@@ -2341,22 +2350,22 @@
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="4">
-        <v>67.0</v>
-      </c>
-      <c r="B68" s="5" t="s">
+        <v>65.0</v>
+      </c>
+      <c r="B68" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C68" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>14</v>
+      <c r="C68" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G68" s="5" t="s">
         <v>11</v>
@@ -2364,7 +2373,7 @@
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="4">
-        <v>68.0</v>
+        <v>66.0</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>81</v>
@@ -2379,7 +2388,7 @@
         <v>8</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G69" s="5" t="s">
         <v>11</v>
@@ -2387,22 +2396,22 @@
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="4">
-        <v>69.0</v>
+        <v>67.0</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>82</v>
       </c>
       <c r="C70" s="6">
-        <v>3.5</v>
+        <v>4.0</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G70" s="5" t="s">
         <v>11</v>
@@ -2410,7 +2419,7 @@
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="4">
-        <v>70.0</v>
+        <v>68.0</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>83</v>
@@ -2419,13 +2428,13 @@
         <v>3.0</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G71" s="5" t="s">
         <v>11</v>
@@ -2433,22 +2442,22 @@
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="4">
-        <v>71.0</v>
+        <v>69.0</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>84</v>
       </c>
       <c r="C72" s="6">
-        <v>3.0</v>
+        <v>3.5</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G72" s="5" t="s">
         <v>11</v>
@@ -2456,22 +2465,22 @@
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="4">
-        <v>72.0</v>
+        <v>70.0</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>85</v>
       </c>
       <c r="C73" s="6">
-        <v>2.5</v>
+        <v>3.0</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G73" s="5" t="s">
         <v>11</v>
@@ -2479,7 +2488,7 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="4">
-        <v>73.0</v>
+        <v>71.0</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>86</v>
@@ -2488,13 +2497,13 @@
         <v>3.0</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G74" s="5" t="s">
         <v>11</v>
@@ -2502,22 +2511,22 @@
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="4">
-        <v>74.0</v>
+        <v>72.0</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>87</v>
       </c>
       <c r="C75" s="6">
-        <v>4.0</v>
+        <v>2.5</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="G75" s="5" t="s">
         <v>11</v>
@@ -2525,7 +2534,7 @@
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="4">
-        <v>75.0</v>
+        <v>73.0</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>88</v>
@@ -2534,13 +2543,13 @@
         <v>3.0</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G76" s="5" t="s">
         <v>11</v>
@@ -2548,22 +2557,22 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="4">
-        <v>76.0</v>
+        <v>75.0</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>89</v>
       </c>
       <c r="C77" s="6">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G77" s="5" t="s">
         <v>11</v>
@@ -2571,13 +2580,13 @@
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="4">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>90</v>
       </c>
       <c r="C78" s="6">
-        <v>2.5</v>
+        <v>4.0</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>9</v>
@@ -2586,7 +2595,7 @@
         <v>14</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G78" s="5" t="s">
         <v>11</v>
@@ -2594,22 +2603,22 @@
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="4">
-        <v>78.0</v>
+        <v>77.0</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>91</v>
       </c>
       <c r="C79" s="6">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G79" s="5" t="s">
         <v>11</v>
@@ -2617,22 +2626,22 @@
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="4">
-        <v>79.0</v>
+        <v>78.0</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>92</v>
       </c>
       <c r="C80" s="6">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G80" s="5" t="s">
         <v>11</v>
@@ -2640,7 +2649,7 @@
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="4">
-        <v>80.0</v>
+        <v>79.0</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>93</v>
@@ -2649,13 +2658,13 @@
         <v>3.5</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G81" s="5" t="s">
         <v>11</v>
@@ -2663,22 +2672,22 @@
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="4">
-        <v>81.0</v>
+        <v>80.0</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>94</v>
       </c>
       <c r="C82" s="6">
-        <v>3.0</v>
+        <v>3.5</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G82" s="5" t="s">
         <v>11</v>
@@ -2686,13 +2695,13 @@
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="4">
-        <v>82.0</v>
+        <v>81.0</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>95</v>
       </c>
       <c r="C83" s="6">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>8</v>
@@ -2701,7 +2710,7 @@
         <v>9</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G83" s="5" t="s">
         <v>11</v>
@@ -2709,22 +2718,22 @@
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="4">
-        <v>83.0</v>
+        <v>82.0</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>96</v>
       </c>
       <c r="C84" s="6">
-        <v>3.5</v>
+        <v>5.0</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G84" s="5" t="s">
         <v>11</v>
@@ -2732,22 +2741,22 @@
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="4">
-        <v>84.0</v>
+        <v>83.0</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>97</v>
       </c>
       <c r="C85" s="6">
-        <v>2.0</v>
+        <v>3.5</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G85" s="5" t="s">
         <v>11</v>
@@ -2755,22 +2764,22 @@
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="4">
-        <v>85.0</v>
+        <v>84.0</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>98</v>
       </c>
       <c r="C86" s="6">
-        <v>3.5</v>
+        <v>2.0</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G86" s="5" t="s">
         <v>11</v>
@@ -2778,7 +2787,7 @@
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="4">
-        <v>86.0</v>
+        <v>85.0</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>99</v>
@@ -2790,10 +2799,10 @@
         <v>8</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G87" s="5" t="s">
         <v>11</v>
@@ -2801,22 +2810,22 @@
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="4">
-        <v>87.0</v>
+        <v>86.0</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>100</v>
       </c>
       <c r="C88" s="6">
-        <v>3.0</v>
+        <v>3.5</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G88" s="5" t="s">
         <v>11</v>
@@ -2824,13 +2833,13 @@
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="4">
-        <v>88.0</v>
+        <v>87.0</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>101</v>
       </c>
       <c r="C89" s="6">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="D89" s="5" t="s">
         <v>9</v>
@@ -2839,7 +2848,7 @@
         <v>8</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G89" s="5" t="s">
         <v>11</v>
@@ -2847,22 +2856,22 @@
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="4">
-        <v>89.0</v>
+        <v>88.0</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>102</v>
       </c>
       <c r="C90" s="6">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G90" s="5" t="s">
         <v>11</v>
@@ -2870,13 +2879,13 @@
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="4">
-        <v>90.0</v>
+        <v>89.0</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>103</v>
       </c>
       <c r="C91" s="6">
-        <v>3.5</v>
+        <v>4.0</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>8</v>
@@ -2885,7 +2894,7 @@
         <v>9</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G91" s="5" t="s">
         <v>11</v>
@@ -2893,22 +2902,22 @@
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="4">
-        <v>91.0</v>
+        <v>90.0</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>104</v>
       </c>
       <c r="C92" s="6">
-        <v>3.0</v>
+        <v>3.5</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G92" s="5" t="s">
         <v>11</v>
@@ -2916,22 +2925,22 @@
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="4">
-        <v>92.0</v>
+        <v>91.0</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>105</v>
       </c>
       <c r="C93" s="6">
-        <v>4.5</v>
+        <v>3.0</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G93" s="5" t="s">
         <v>11</v>
@@ -2939,22 +2948,22 @@
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="4">
-        <v>93.0</v>
+        <v>92.0</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>106</v>
       </c>
       <c r="C94" s="6">
-        <v>4.0</v>
+        <v>4.5</v>
       </c>
       <c r="D94" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G94" s="5" t="s">
         <v>11</v>
@@ -2962,7 +2971,7 @@
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="4">
-        <v>94.0</v>
+        <v>93.0</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>107</v>
@@ -2971,13 +2980,13 @@
         <v>4.0</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G95" s="5" t="s">
         <v>11</v>
@@ -2985,22 +2994,22 @@
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="4">
-        <v>95.0</v>
+        <v>94.0</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>108</v>
       </c>
       <c r="C96" s="6">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G96" s="5" t="s">
         <v>11</v>
@@ -3008,7 +3017,7 @@
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="4">
-        <v>96.0</v>
+        <v>95.0</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>109</v>
@@ -3023,7 +3032,7 @@
         <v>9</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G97" s="5" t="s">
         <v>11</v>
@@ -3031,22 +3040,22 @@
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="4">
-        <v>97.0</v>
+        <v>96.0</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>110</v>
       </c>
       <c r="C98" s="6">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G98" s="5" t="s">
         <v>11</v>
@@ -3054,22 +3063,22 @@
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="4">
-        <v>98.0</v>
+        <v>97.0</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>111</v>
       </c>
       <c r="C99" s="6">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G99" s="5" t="s">
         <v>11</v>
@@ -3077,22 +3086,22 @@
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="4">
-        <v>99.0</v>
+        <v>98.0</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>112</v>
       </c>
       <c r="C100" s="6">
-        <v>3.5</v>
+        <v>4.0</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G100" s="5" t="s">
         <v>11</v>
@@ -3100,22 +3109,22 @@
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="4">
-        <v>100.0</v>
+        <v>99.0</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>113</v>
       </c>
       <c r="C101" s="6">
-        <v>2.0</v>
+        <v>3.5</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G101" s="5" t="s">
         <v>11</v>
@@ -3123,13 +3132,13 @@
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="4">
-        <v>101.0</v>
+        <v>100.0</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>114</v>
       </c>
       <c r="C102" s="6">
-        <v>3.5</v>
+        <v>2.0</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>8</v>
@@ -3138,7 +3147,7 @@
         <v>9</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G102" s="5" t="s">
         <v>11</v>
@@ -3146,22 +3155,22 @@
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="4">
-        <v>102.0</v>
+        <v>101.0</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>115</v>
       </c>
       <c r="C103" s="6">
-        <v>3.0</v>
+        <v>3.5</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G103" s="5" t="s">
         <v>11</v>
@@ -3169,22 +3178,22 @@
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="4">
-        <v>103.0</v>
+        <v>102.0</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>116</v>
       </c>
       <c r="C104" s="6">
-        <v>4.5</v>
+        <v>3.0</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G104" s="5" t="s">
         <v>11</v>
@@ -3192,7 +3201,7 @@
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="4">
-        <v>104.0</v>
+        <v>103.0</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>117</v>
@@ -3204,10 +3213,10 @@
         <v>8</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G105" s="5" t="s">
         <v>11</v>
@@ -3215,13 +3224,13 @@
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="4">
-        <v>105.0</v>
+        <v>104.0</v>
       </c>
       <c r="B106" s="5" t="s">
         <v>118</v>
       </c>
       <c r="C106" s="6">
-        <v>3.0</v>
+        <v>4.5</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>8</v>
@@ -3230,7 +3239,7 @@
         <v>13</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G106" s="5" t="s">
         <v>11</v>
@@ -3238,22 +3247,22 @@
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="4">
-        <v>106.0</v>
+        <v>105.0</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>119</v>
       </c>
       <c r="C107" s="6">
-        <v>2.5</v>
+        <v>3.0</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G107" s="5" t="s">
         <v>11</v>
@@ -3261,219 +3270,219 @@
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="4">
-        <v>107.0</v>
+        <v>106.0</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>120</v>
       </c>
       <c r="C108" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" ht="15.75" customHeight="1">
+      <c r="A109" s="14">
+        <v>107.0</v>
+      </c>
+      <c r="B109" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C109" s="14">
         <v>5.0</v>
       </c>
-      <c r="D108" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F108" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G108" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="12">
+      <c r="D109" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G109" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" ht="15.75" customHeight="1">
+      <c r="A110" s="16">
         <v>108.0</v>
       </c>
-      <c r="B109" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C109" s="12">
+      <c r="B110" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C110" s="16">
         <v>3.0</v>
       </c>
-      <c r="D109" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F109" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G109" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="12">
+      <c r="D110" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G110" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" ht="15.75" customHeight="1">
+      <c r="A111" s="16">
         <v>109.0</v>
       </c>
-      <c r="B110" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C110" s="12">
+      <c r="B111" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C111" s="16">
         <v>3.5</v>
       </c>
-      <c r="D110" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E110" s="5" t="s">
+      <c r="D111" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E111" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F110" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G110" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="12">
+      <c r="F111" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G111" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" ht="15.75" customHeight="1">
+      <c r="A112" s="16">
         <v>110.0</v>
       </c>
-      <c r="B111" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="C111" s="12">
+      <c r="B112" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C112" s="16">
         <v>4.0</v>
       </c>
-      <c r="D111" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E111" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F111" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G111" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="12">
+      <c r="D112" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" ht="15.75" customHeight="1">
+      <c r="A113" s="16">
         <v>111.0</v>
       </c>
-      <c r="B112" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C112" s="12">
+      <c r="B113" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C113" s="16">
         <v>3.0</v>
       </c>
-      <c r="D112" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F112" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G112" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="12">
+      <c r="D113" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G113" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" ht="15.75" customHeight="1">
+      <c r="A114" s="16">
         <v>112.0</v>
       </c>
-      <c r="B113" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="C113" s="12">
+      <c r="B114" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C114" s="16">
         <v>2.5</v>
       </c>
-      <c r="D113" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E113" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F113" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G113" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="12">
+      <c r="D114" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G114" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" ht="15.75" customHeight="1">
+      <c r="A115" s="16">
         <v>113.0</v>
       </c>
-      <c r="B114" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="C114" s="12">
+      <c r="B115" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C115" s="16">
         <v>4.0</v>
       </c>
-      <c r="D114" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E114" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F114" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G114" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="12">
+      <c r="D115" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G115" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" ht="15.75" customHeight="1">
+      <c r="A116" s="16">
         <v>114.0</v>
       </c>
-      <c r="B115" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="C115" s="12">
+      <c r="B116" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C116" s="16">
         <v>3.5</v>
       </c>
-      <c r="D115" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E115" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F115" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G115" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="12">
+      <c r="D116" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G116" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" ht="15.75" customHeight="1">
+      <c r="A117" s="16">
         <v>115.0</v>
       </c>
-      <c r="B116" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C116" s="12">
-        <v>2.5</v>
-      </c>
-      <c r="D116" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E116" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F116" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G116" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="12">
-        <v>115.0</v>
-      </c>
-      <c r="B117" s="12" t="s">
+      <c r="B117" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="C117" s="12">
+      <c r="C117" s="16">
         <v>3.5</v>
       </c>
       <c r="D117" s="5" t="s">
@@ -3483,20 +3492,20 @@
         <v>13</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G117" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="12">
+      <c r="A118" s="16">
         <v>116.0</v>
       </c>
-      <c r="B118" s="12" t="s">
+      <c r="B118" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="C118" s="12">
+      <c r="C118" s="16">
         <v>2.5</v>
       </c>
       <c r="D118" s="5" t="s">
@@ -3506,101 +3515,101 @@
         <v>14</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G118" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="12">
+      <c r="A119" s="16">
         <v>117.0</v>
       </c>
-      <c r="B119" s="12" t="s">
+      <c r="B119" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="C119" s="12">
+      <c r="C119" s="16">
         <v>2.5</v>
       </c>
-      <c r="D119" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E119" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F119" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G119" s="14" t="s">
+      <c r="D119" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E119" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F119" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G119" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="12">
+      <c r="A120" s="16">
         <v>118.0</v>
       </c>
-      <c r="B120" s="12" t="s">
+      <c r="B120" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="C120" s="12">
+      <c r="C120" s="16">
         <v>4.5</v>
       </c>
-      <c r="D120" s="14" t="s">
+      <c r="D120" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E120" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F120" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G120" s="14" t="s">
+      <c r="E120" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F120" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G120" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="13">
+      <c r="A121" s="17">
         <v>119.0</v>
       </c>
-      <c r="B121" s="13" t="s">
+      <c r="B121" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="C121" s="13">
+      <c r="C121" s="17">
         <v>4.0</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E121" s="14" t="s">
+      <c r="E121" s="15" t="s">
         <v>14</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G121" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="13">
+      <c r="A122" s="17">
         <v>120.0</v>
       </c>
-      <c r="B122" s="13" t="s">
+      <c r="B122" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="C122" s="13">
+      <c r="C122" s="17">
         <v>3.4</v>
       </c>
-      <c r="D122" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E122" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F122" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G122" s="13" t="s">
+      <c r="D122" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E122" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F122" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G122" s="17" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4487,18 +4496,18 @@
   </sheetData>
   <autoFilter ref="$A$1:$G$117">
     <sortState ref="A1:G117">
+      <sortCondition descending="1" ref="F1:F117"/>
       <sortCondition ref="A1:A117"/>
-      <sortCondition descending="1" ref="F1:F117"/>
     </sortState>
   </autoFilter>
   <dataValidations>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F121">
       <formula1>"mensalista,diarista"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D88 D89:E89 D90:D95 D96:E96 D97:D98 D99:E99 D101:E102 E103 D104:E104 D105:D106 D107:E107 D108 D109:E109 D110 D111:E111 D112:D121">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D89 D90:E90 D91:D96 D97:E97 D98:D99 D100:E100 D102:E103 E104 D105:E105 D106:D107 D108:E108 D109 D110:E110 D111 D112:E112 D113:D121">
       <formula1>"meia,zagueiro,atacante,qualquer"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E88 E90:E95 E97:E98 D100:E100 D103 E105:E106 E108 E110 E112:E121">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E89 E91:E96 E98:E99 D101:E101 D104 E106:E107 E109 E111 E113:E121">
       <formula1>"atacante,nenhum,meia,zagueiro,qualquer"</formula1>
     </dataValidation>
   </dataValidations>
